--- a/machines/perfection/perfectionMeth.xlsx
+++ b/machines/perfection/perfectionMeth.xlsx
@@ -513,7 +513,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,7 +525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,13 +721,13 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.46"/>
   </cols>
   <sheetData>
@@ -818,7 +818,7 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1330,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
@@ -1338,7 +1338,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="85.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1443,54 +1443,9 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="e">
-        <f aca="false">==============================================================</f>
+        <f aca="false">=============================================================</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1516,7 +1471,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1517,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="104.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="104.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,168 +1525,169 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1759,7 +1715,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="237.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="237.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,12 +1842,6 @@
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
